--- a/Click URLs.xlsx
+++ b/Click URLs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinuka Thilakarathne\OneDrive\Documents\UiPath\RPA_OCR_Extraction_Process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79B798-A1C9-45C1-A8F5-991598CA255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3315" yWindow="-14415" windowWidth="24675" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,105 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>SSA-3288</t>
+  </si>
+  <si>
+    <t>SSA-827</t>
+  </si>
+  <si>
+    <t>SSA-1696</t>
+  </si>
+  <si>
+    <t>SSA-8000</t>
+  </si>
+  <si>
+    <t>Fillable SSA-8000</t>
+  </si>
+  <si>
+    <t>SSA-8001</t>
+  </si>
+  <si>
+    <t>SSA-3369</t>
+  </si>
+  <si>
+    <t>SSA-821</t>
+  </si>
+  <si>
+    <t>HA-1151</t>
+  </si>
+  <si>
+    <t>HA-1152</t>
+  </si>
+  <si>
+    <t>SSA-787</t>
+  </si>
+  <si>
+    <t>SSA-1699</t>
+  </si>
+  <si>
+    <t>paper form</t>
+  </si>
+  <si>
+    <t>SSA-3373</t>
+  </si>
+  <si>
+    <t>Listing of Impairments - Adult Listings ("Blue Book")</t>
+  </si>
+  <si>
+    <t>SSA-3820</t>
+  </si>
+  <si>
+    <t>SSA-3375</t>
+  </si>
+  <si>
+    <t>SSA-5665</t>
+  </si>
+  <si>
+    <t>Listing of Impairments - Child Listings</t>
+  </si>
+  <si>
+    <t>Medicaid Eligibility Income Threshold Amounts</t>
+  </si>
+  <si>
+    <t>Compassionate Allowances</t>
+  </si>
+  <si>
+    <t>SSA-4814:</t>
+  </si>
+  <si>
+    <t>Online Disability Appeal Application (&amp;quot;iAppeal&amp;quot;)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +145,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +444,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.ssa.gov/forms/ssa-3288.pdf" xr:uid="{4F49D509-9B23-4E11-AF1D-0218CAED61BB}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.ssa.gov/forms/ssa-827.pdf" xr:uid="{95782F72-9A45-4F60-B09E-CE9BC8F86C8C}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.ssa.gov/forms/ssa-1696.pdf" xr:uid="{02DA1C43-A35D-4EC2-80BE-184064FDED67}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://soarworks.samhsa.gov/sites/default/files/SSA-8000-BK 06 2019.pdf" xr:uid="{06AC3530-77F9-4D91-9B8A-F795B5DCC67E}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://soarworks.samhsa.gov/sites/default/files/SSA 8001_Application-SSI_Deferred-Abbreviated.pdf" xr:uid="{01BD9B08-FDFB-4180-97A4-F273C3DBDEBC}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.ssa.gov/forms/ssa-3369.pdf" xr:uid="{B784C73D-6AAD-4F83-8D40-B42B38046B85}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.ssa.gov/forms/ssa-821.pdf" xr:uid="{3B223E72-71F9-4D6E-8320-034C741942D3}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://soarworks.samhsa.gov/sites/default/files/HA-1151.pdf" xr:uid="{1BFF743E-E915-4F6D-AE6E-D32062BCA60F}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://soarworks.samhsa.gov/sites/default/files/article/upload-files/2022-06/HA-1152 1_2017.pdf" xr:uid="{0B3A1123-1C27-4287-A615-F010D21F3E44}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://soarworks.samhsa.gov/sites/default/files/SSA-787 11_2015.pdf" xr:uid="{8342881E-8AFA-48F3-AC01-2E09034CEF95}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.ssa.gov/forms/ssa-1699.pdf" xr:uid="{934E64EA-4804-4497-8D5C-2C5582E6775B}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.ssa.gov/forms/ssa-16-bk.pdf" xr:uid="{592EE1A2-FC93-47DA-931C-0FE1E84054A9}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.ssa.gov/forms/ssa-3368-bk.pdf" xr:uid="{E700F559-EB22-4D4B-86D5-2C188531D810}"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.ssa.gov/forms/ssa-3373-bk.pdf" xr:uid="{942667AF-1FF8-418B-8844-ED8A3BBF959C}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.ssa.gov/forms/ssa-4814.pdf" xr:uid="{29C09C63-B451-415A-BF5B-C6C375561C82}"/>
+    <hyperlink ref="A20" r:id="rId16" display="http://www.ssa.gov/forms/ssa-3820.pdf" xr:uid="{4735F4A6-0BB5-44A0-AA19-B5FD7DC86817}"/>
+    <hyperlink ref="A26" r:id="rId17" display="https://www.ssa.gov/forms/ssa-5665.pdf" xr:uid="{09F99AEF-3B04-429E-9FED-8FF523E7050C}"/>
+    <hyperlink ref="A27" r:id="rId18" display="https://www.ssa.gov/disability/professionals/bluebook/ChildhoodListings.htm" xr:uid="{FB07363D-5A90-434E-B382-276942C78F2A}"/>
+    <hyperlink ref="A28" r:id="rId19" display="http://www.socialsecurity.gov/disabilityresearch/wi/1619b.htm" xr:uid="{F5D0B53A-6B15-45FB-AB7C-9E613BA337E2}"/>
+    <hyperlink ref="A29" r:id="rId20" display="http://www.ssa.gov/compassionateallowances/conditions.htm" xr:uid="{3FC3A08B-BE85-4548-8533-802ABEB5A1FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Click URLs.xlsx
+++ b/Click URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinuka Thilakarathne\OneDrive\Documents\UiPath\RPA_OCR_Extraction_Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79B798-A1C9-45C1-A8F5-991598CA255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5560A8-77E7-4755-A5D8-DF54EA5095B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="-14415" windowWidth="24675" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Value</t>
   </si>
@@ -97,6 +97,105 @@
   </si>
   <si>
     <t>Online Disability Appeal Application (&amp;quot;iAppeal&amp;quot;)</t>
+  </si>
+  <si>
+    <t>Folder Path</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-827\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-1696\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-8000\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"Fillable SSA-8000\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-8001\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-3369\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-821\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"HA-1151\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"HA-1152\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-787\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-1699\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"paper form\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-3373\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-3820\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-3375\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"3376\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"3377\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"3378\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"3379\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-5665\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"Compassionate Allowances\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"SSA-4814\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"Listing of Impairments\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"Online Disability Appeal Application\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56"+"\"+"Medicaid Eligibility Income\"</t>
+  </si>
+  <si>
+    <t>"Website ID 56+"\"+"SSA-3288\"</t>
+  </si>
+  <si>
+    <t>Folder Path 2</t>
+  </si>
+  <si>
+    <t>Website ID 56+\+SSA-3288\</t>
+  </si>
+  <si>
+    <t>Website ID 56+\+SSA-827\</t>
+  </si>
+  <si>
+    <t>Website ID 56+\+SSA-1696\</t>
+  </si>
+  <si>
+    <t>Website ID 56+\+SSA-8000\</t>
+  </si>
+  <si>
+    <t>Website ID 56+\+Fillable SSA-8000\</t>
   </si>
 </sst>
 </file>
@@ -445,160 +544,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.21875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3376</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3377</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3378</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3379</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Click URLs.xlsx
+++ b/Click URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinuka Thilakarathne\OneDrive\Documents\UiPath\RPA_OCR_Extraction_Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5560A8-77E7-4755-A5D8-DF54EA5095B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8630B-9DCB-4602-9543-C81EF4E91E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="-14415" windowWidth="24675" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
